--- a/biology/Zoologie/Erannis_tiliaria/Erannis_tiliaria.xlsx
+++ b/biology/Zoologie/Erannis_tiliaria/Erannis_tiliaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erannis tiliaria, l’Arpenteuse du tilleul, est une espèce de lépidoptères nocturnes nord-américaine de la famille des Geometridae. On la trouve du centre à l'est de l'Alberta jusqu'à la Nouvelle-Écosse, au sud du Missouri, en Géorgie, Utah et Texas.
 Erannis vancouverensis a été considéré comme une sous-espèce de E. tiliaria pendant un certain temps mais a depuis été reconnu comme une espèce à part entière.
-L'envergure va de 32 à 42 mm pour les mâles. Les femelles n'ont pas d'ailes. Les mâles adules volent à la fin de l'automne[1].
+L'envergure va de 32 à 42 mm pour les mâles. Les femelles n'ont pas d'ailes. Les mâles adules volent à la fin de l'automne.
 La larve se nourrit d'arbres ou arbustes à feuilles caduques comprenant tilleul, pommier, hêtre, frêne, bouleau, aulne, érable, chêne, peuplier, Prunus et groseillier.
 </t>
         </is>
